--- a/data/trans_orig/P57B_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>131909</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>112639</v>
+        <v>114381</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>153349</v>
+        <v>154773</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2694537056433401</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2300896951869063</v>
+        <v>0.2336470321036581</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3132482976726217</v>
+        <v>0.3161578273730601</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>287</v>
@@ -762,19 +762,19 @@
         <v>186243</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>167079</v>
+        <v>166558</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>206218</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3066337029372922</v>
+        <v>0.3066337029372923</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2750825631354667</v>
+        <v>0.2742239122042623</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3395222716814767</v>
+        <v>0.3395211104006312</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>435</v>
@@ -783,19 +783,19 @@
         <v>318152</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>290320</v>
+        <v>290166</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>347026</v>
+        <v>347695</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2900406877402618</v>
+        <v>0.2900406877402617</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2646682839511318</v>
+        <v>0.2645272746207208</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3163638402290805</v>
+        <v>0.3169732800903033</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>357635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>336195</v>
+        <v>334771</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>376905</v>
+        <v>375163</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7305462943566599</v>
+        <v>0.73054629435666</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6867517023273783</v>
+        <v>0.6838421726269399</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7699103048130936</v>
+        <v>0.766352967896342</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>548</v>
@@ -836,16 +836,16 @@
         <v>401160</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>440299</v>
+        <v>440820</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6933662970627076</v>
+        <v>0.6933662970627077</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6604777283185235</v>
+        <v>0.6604788895993687</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7249174368645332</v>
+        <v>0.7257760877957374</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>848</v>
@@ -854,19 +854,19 @@
         <v>778770</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>749896</v>
+        <v>749227</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>806602</v>
+        <v>806756</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7099593122597384</v>
+        <v>0.7099593122597382</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6836361597709195</v>
+        <v>0.6830267199096965</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7353317160488682</v>
+        <v>0.7354727253792791</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>98327</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>81934</v>
+        <v>81614</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>118898</v>
+        <v>117930</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1038143183703831</v>
+        <v>0.103814318370383</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08650667517627114</v>
+        <v>0.08616842328907498</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.125533685476374</v>
+        <v>0.1245117913813999</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>296</v>
@@ -979,19 +979,19 @@
         <v>172496</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>153882</v>
+        <v>151391</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>193264</v>
+        <v>190411</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1570245754501366</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.140079592129512</v>
+        <v>0.1378127930407972</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1759292152814635</v>
+        <v>0.1733323165291944</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>418</v>
@@ -1000,19 +1000,19 @@
         <v>270823</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>246563</v>
+        <v>245115</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>299517</v>
+        <v>296464</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1323883594054563</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.120529155524904</v>
+        <v>0.1198214914709427</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1464150821898799</v>
+        <v>0.1449224580461555</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>848813</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>828242</v>
+        <v>829210</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>865206</v>
+        <v>865526</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.896185681629617</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8744663145236258</v>
+        <v>0.8754882086186001</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9134933248237287</v>
+        <v>0.9138315767109251</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1283</v>
@@ -1050,19 +1050,19 @@
         <v>926034</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>905266</v>
+        <v>908119</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>944648</v>
+        <v>947139</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8429754245498633</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8240707847185362</v>
+        <v>0.8266676834708054</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8599204078704878</v>
+        <v>0.8621872069592028</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2059</v>
@@ -1071,19 +1071,19 @@
         <v>1774847</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1746153</v>
+        <v>1749206</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1799107</v>
+        <v>1800555</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8676116405945435</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8535849178101196</v>
+        <v>0.8550775419538441</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8794708444750958</v>
+        <v>0.8801785085290572</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>59528</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45719</v>
+        <v>46666</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77049</v>
+        <v>75839</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05754200233856111</v>
+        <v>0.0575420023385611</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0441932684115143</v>
+        <v>0.045108879957703</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07447844593893224</v>
+        <v>0.07330834560780673</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>164</v>
@@ -1196,19 +1196,19 @@
         <v>95586</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79913</v>
+        <v>80450</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>110696</v>
+        <v>110317</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09274006750230726</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07753384753264553</v>
+        <v>0.07805454021039393</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1074006776531494</v>
+        <v>0.1070323381677979</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>241</v>
@@ -1217,19 +1217,19 @@
         <v>155114</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>136603</v>
+        <v>134436</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>178546</v>
+        <v>175742</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07510840317702996</v>
+        <v>0.07510840317702995</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06614505134274277</v>
+        <v>0.06509572650985185</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08645473772304528</v>
+        <v>0.08509692428696335</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>974987</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>957466</v>
+        <v>958676</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>988796</v>
+        <v>987849</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9424579976614389</v>
+        <v>0.942457997661439</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9255215540610672</v>
+        <v>0.9266916543921933</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9558067315884855</v>
+        <v>0.954891120042297</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1324</v>
@@ -1267,19 +1267,19 @@
         <v>935100</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>919990</v>
+        <v>920369</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>950773</v>
+        <v>950236</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9072599324976928</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8925993223468508</v>
+        <v>0.8929676618322021</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9224661524673545</v>
+        <v>0.9219454597896061</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2266</v>
@@ -1288,19 +1288,19 @@
         <v>1910088</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1886656</v>
+        <v>1889460</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1928599</v>
+        <v>1930766</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9248915968229701</v>
+        <v>0.9248915968229702</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9135452622769548</v>
+        <v>0.9149030757130365</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9338549486572572</v>
+        <v>0.9349042734901482</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>61474</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46672</v>
+        <v>47309</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80771</v>
+        <v>80307</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06363365534952373</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0483115427850276</v>
+        <v>0.0489714190006816</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08360819012476065</v>
+        <v>0.08312831236153817</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>155</v>
@@ -1413,19 +1413,19 @@
         <v>83298</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69687</v>
+        <v>70734</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>99858</v>
+        <v>99260</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09256713118438158</v>
+        <v>0.09256713118438159</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07744240313429683</v>
+        <v>0.07860527893880204</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1109705775252874</v>
+        <v>0.1103057396695869</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>229</v>
@@ -1434,19 +1434,19 @@
         <v>144772</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124719</v>
+        <v>126248</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167331</v>
+        <v>167133</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07758713710495937</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06684037602650744</v>
+        <v>0.06765992545267209</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08967733703615126</v>
+        <v>0.0895713188109529</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>904588</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>885291</v>
+        <v>885755</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>919390</v>
+        <v>918753</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9363663446504763</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9163918098752394</v>
+        <v>0.9168716876384618</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9516884572149722</v>
+        <v>0.9510285809993182</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1153</v>
@@ -1484,19 +1484,19 @@
         <v>816564</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>800004</v>
+        <v>800602</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>830175</v>
+        <v>829128</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9074328688156184</v>
+        <v>0.9074328688156185</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8890294224747134</v>
+        <v>0.8896942603304132</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9225575968657036</v>
+        <v>0.921394721061198</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2015</v>
@@ -1505,19 +1505,19 @@
         <v>1721152</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1698593</v>
+        <v>1698791</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1741205</v>
+        <v>1739676</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9224128628950405</v>
+        <v>0.9224128628950407</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9103226629638487</v>
+        <v>0.9104286811890472</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9331596239734926</v>
+        <v>0.932340074547328</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>351238</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>315248</v>
+        <v>317841</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>386885</v>
+        <v>386196</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1021855103443562</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09171497276487985</v>
+        <v>0.09246928028003588</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1125563023388486</v>
+        <v>0.112355659218874</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>902</v>
@@ -1630,19 +1630,19 @@
         <v>537622</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>502188</v>
+        <v>502709</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>573975</v>
+        <v>576115</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1478423871860708</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1380980686709331</v>
+        <v>0.1382413788849693</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1578390382547903</v>
+        <v>0.158427534903095</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1323</v>
@@ -1651,19 +1651,19 @@
         <v>888861</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>841793</v>
+        <v>839107</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>939801</v>
+        <v>939448</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.125656793831165</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1190028649584595</v>
+        <v>0.1186231718237389</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.132858128770374</v>
+        <v>0.1328082039442748</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3086023</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3050376</v>
+        <v>3051065</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3122013</v>
+        <v>3119420</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8978144896556438</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8874436976611516</v>
+        <v>0.8876443407811258</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9082850272351199</v>
+        <v>0.907530719719964</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4308</v>
@@ -1701,19 +1701,19 @@
         <v>3098834</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3062481</v>
+        <v>3060341</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3134268</v>
+        <v>3133747</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8521576128139291</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8421609617452097</v>
+        <v>0.8415724650969051</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.861901931329067</v>
+        <v>0.8617586211150308</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7188</v>
@@ -1722,19 +1722,19 @@
         <v>6184857</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6133917</v>
+        <v>6134270</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6231925</v>
+        <v>6234611</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8743432061688349</v>
+        <v>0.874343206168835</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8671418712296256</v>
+        <v>0.8671917960557252</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8809971350415403</v>
+        <v>0.8813768281762611</v>
       </c>
     </row>
     <row r="18">
